--- a/outcome/fig6.xlsx
+++ b/outcome/fig6.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="623">
   <si>
     <t xml:space="preserve">location_name</t>
   </si>
@@ -1879,6 +1879,9 @@
   </si>
   <si>
     <t xml:space="preserve">CFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFR_l</t>
   </si>
 </sst>
 </file>
@@ -1939,15 +1942,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F409" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:F409"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G409" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:G409"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="location_id"/>
     <tableColumn id="2" name="location_name"/>
     <tableColumn id="3" name="year"/>
     <tableColumn id="4" name="Deaths"/>
     <tableColumn id="5" name="Incidence"/>
     <tableColumn id="6" name="CFR"/>
+    <tableColumn id="7" name="CFR_l"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5142,6 +5146,9 @@
       <c r="F1" t="s">
         <v>621</v>
       </c>
+      <c r="G1" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -5162,6 +5169,9 @@
       <c r="F2" t="n">
         <v>0.0103667355246542</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.0103667355246542</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -5182,6 +5192,9 @@
       <c r="F3" t="n">
         <v>0.000105899375067528</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.000105899375067528</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -5202,6 +5215,9 @@
       <c r="F4" t="n">
         <v>0.030549299630254</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.030549299630254</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -5222,6 +5238,9 @@
       <c r="F5" t="n">
         <v>0.182757967159887</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.182757967159887</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -5242,6 +5261,9 @@
       <c r="F6" t="n">
         <v>0.000156159201577343</v>
       </c>
+      <c r="G6" t="n">
+        <v>0.000156159201577343</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -5262,6 +5284,9 @@
       <c r="F7" t="n">
         <v>0.0000101931142405151</v>
       </c>
+      <c r="G7" t="n">
+        <v>0.0000101931142405151</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -5282,6 +5307,9 @@
       <c r="F8" t="n">
         <v>0.000509752174990023</v>
       </c>
+      <c r="G8" t="n">
+        <v>0.000509752174990023</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -5302,6 +5330,9 @@
       <c r="F9" t="n">
         <v>0.000778666644971593</v>
       </c>
+      <c r="G9" t="n">
+        <v>0.000778666644971593</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -5322,6 +5353,9 @@
       <c r="F10" t="n">
         <v>0.590938502713986</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.590938502713986</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -5342,6 +5376,9 @@
       <c r="F11" t="n">
         <v>0.0218899474428487</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.0218899474428487</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -5362,6 +5399,9 @@
       <c r="F12" t="n">
         <v>0.625653720089093</v>
       </c>
+      <c r="G12" t="n">
+        <v>0.625653720089093</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -5382,6 +5422,9 @@
       <c r="F13" t="n">
         <v>0.734308378460898</v>
       </c>
+      <c r="G13" t="n">
+        <v>0.734308378460898</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -5402,6 +5445,9 @@
       <c r="F14" t="n">
         <v>1.04794304216783</v>
       </c>
+      <c r="G14" t="n">
+        <v>1.04794304216783</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -5422,6 +5468,9 @@
       <c r="F15" t="n">
         <v>1.43186565083024</v>
       </c>
+      <c r="G15" t="n">
+        <v>1.43186565083024</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -5442,6 +5491,9 @@
       <c r="F16" t="n">
         <v>0.347951106384995</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.347951106384995</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -5462,6 +5514,9 @@
       <c r="F17" t="n">
         <v>0.000126486164996908</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.000126486164996908</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -5482,6 +5537,9 @@
       <c r="F18" t="n">
         <v>0.670750804459637</v>
       </c>
+      <c r="G18" t="n">
+        <v>0.670750804459637</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -5502,6 +5560,9 @@
       <c r="F19" t="n">
         <v>0.590688698312862</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.590688698312862</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -5522,6 +5583,9 @@
       <c r="F20" t="n">
         <v>0.505819113898819</v>
       </c>
+      <c r="G20" t="n">
+        <v>0.505819113898819</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -5542,6 +5606,9 @@
       <c r="F21" t="n">
         <v>1.42561559213009</v>
       </c>
+      <c r="G21" t="n">
+        <v>1.42561559213009</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -5562,6 +5629,9 @@
       <c r="F22" t="n">
         <v>1.4116462496991</v>
       </c>
+      <c r="G22" t="n">
+        <v>1.4116462496991</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -5582,6 +5652,9 @@
       <c r="F23" t="n">
         <v>1.30008627105657</v>
       </c>
+      <c r="G23" t="n">
+        <v>1.30008627105657</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -5602,6 +5675,9 @@
       <c r="F24" t="n">
         <v>0.00532197562129529</v>
       </c>
+      <c r="G24" t="n">
+        <v>0.00532197562129529</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -5622,6 +5698,9 @@
       <c r="F25" t="n">
         <v>0.000980480868187857</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.000980480868187857</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -5642,6 +5721,9 @@
       <c r="F26" t="n">
         <v>0.0000884680126683235</v>
       </c>
+      <c r="G26" t="n">
+        <v>0.0000884680126683235</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -5662,6 +5744,9 @@
       <c r="F27" t="n">
         <v>0.00000421152822098916</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.00000421152822098916</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -5682,6 +5767,9 @@
       <c r="F28" t="n">
         <v>0.464601659009549</v>
       </c>
+      <c r="G28" t="n">
+        <v>0.464601659009549</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -5702,6 +5790,9 @@
       <c r="F29" t="n">
         <v>0.00169437764708724</v>
       </c>
+      <c r="G29" t="n">
+        <v>0.00169437764708724</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -5722,6 +5813,9 @@
       <c r="F30" t="n">
         <v>1.28025405777752</v>
       </c>
+      <c r="G30" t="n">
+        <v>1.28025405777752</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -5742,6 +5836,9 @@
       <c r="F31" t="n">
         <v>0.519600851401824</v>
       </c>
+      <c r="G31" t="n">
+        <v>0.519600851401824</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5762,6 +5859,9 @@
       <c r="F32" t="n">
         <v>1.04769332849879</v>
       </c>
+      <c r="G32" t="n">
+        <v>1.04769332849879</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5782,6 +5882,9 @@
       <c r="F33" t="n">
         <v>0.0000737086493227523</v>
       </c>
+      <c r="G33" t="n">
+        <v>0.0000737086493227523</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5802,6 +5905,9 @@
       <c r="F34" t="n">
         <v>0.638167122988738</v>
       </c>
+      <c r="G34" t="n">
+        <v>0.638167122988738</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5822,6 +5928,9 @@
       <c r="F35" t="n">
         <v>0.684945541647606</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.684945541647606</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5842,6 +5951,9 @@
       <c r="F36" t="n">
         <v>1.65576049748821</v>
       </c>
+      <c r="G36" t="n">
+        <v>1.65576049748821</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5862,6 +5974,9 @@
       <c r="F37" t="n">
         <v>1.28327064961245</v>
       </c>
+      <c r="G37" t="n">
+        <v>1.28327064961245</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5882,6 +5997,9 @@
       <c r="F38" t="n">
         <v>0.00143971336324286</v>
       </c>
+      <c r="G38" t="n">
+        <v>0.00143971336324286</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5902,6 +6020,9 @@
       <c r="F39" t="n">
         <v>1.19397229261619</v>
       </c>
+      <c r="G39" t="n">
+        <v>1.19397229261619</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5922,6 +6043,9 @@
       <c r="F40" t="n">
         <v>0.625645635888914</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.625645635888914</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5942,6 +6066,9 @@
       <c r="F41" t="n">
         <v>1.27877216784081</v>
       </c>
+      <c r="G41" t="n">
+        <v>1.27877216784081</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5962,6 +6089,9 @@
       <c r="F42" t="n">
         <v>0.0016255453180904</v>
       </c>
+      <c r="G42" t="n">
+        <v>0.0016255453180904</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5982,6 +6112,9 @@
       <c r="F43" t="n">
         <v>0.00414743038074193</v>
       </c>
+      <c r="G43" t="n">
+        <v>0.00414743038074193</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6002,6 +6135,9 @@
       <c r="F44" t="n">
         <v>1.98344404279055</v>
       </c>
+      <c r="G44" t="n">
+        <v>1.98344404279055</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6022,6 +6158,9 @@
       <c r="F45" t="n">
         <v>1.55536042232023</v>
       </c>
+      <c r="G45" t="n">
+        <v>1.55536042232023</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6042,6 +6181,9 @@
       <c r="F46" t="n">
         <v>0.000343827106004217</v>
       </c>
+      <c r="G46" t="n">
+        <v>0.000343827106004217</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6062,6 +6204,9 @@
       <c r="F47" t="n">
         <v>0.038437028694519</v>
       </c>
+      <c r="G47" t="n">
+        <v>0.038437028694519</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6082,6 +6227,9 @@
       <c r="F48" t="n">
         <v>0.529298625318792</v>
       </c>
+      <c r="G48" t="n">
+        <v>0.529298625318792</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6102,6 +6250,9 @@
       <c r="F49" t="n">
         <v>0.736254224621163</v>
       </c>
+      <c r="G49" t="n">
+        <v>0.736254224621163</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6122,6 +6273,9 @@
       <c r="F50" t="n">
         <v>0.473925574594189</v>
       </c>
+      <c r="G50" t="n">
+        <v>0.473925574594189</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6142,6 +6296,9 @@
       <c r="F51" t="n">
         <v>0.880390307153418</v>
       </c>
+      <c r="G51" t="n">
+        <v>0.880390307153418</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6162,6 +6319,9 @@
       <c r="F52" t="n">
         <v>1.10793365465574</v>
       </c>
+      <c r="G52" t="n">
+        <v>1.10793365465574</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6182,6 +6342,9 @@
       <c r="F53" t="n">
         <v>0.0109800298797872</v>
       </c>
+      <c r="G53" t="n">
+        <v>0.0109800298797872</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6202,6 +6365,9 @@
       <c r="F54" t="n">
         <v>0.476548697244358</v>
       </c>
+      <c r="G54" t="n">
+        <v>0.476548697244358</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6222,6 +6388,9 @@
       <c r="F55" t="n">
         <v>0.510274126967587</v>
       </c>
+      <c r="G55" t="n">
+        <v>0.510274126967587</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6242,6 +6411,9 @@
       <c r="F56" t="n">
         <v>0.0000150670427621266</v>
       </c>
+      <c r="G56" t="n">
+        <v>0.0000150670427621266</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6262,6 +6434,9 @@
       <c r="F57" t="n">
         <v>1.48738385777425</v>
       </c>
+      <c r="G57" t="n">
+        <v>1.48738385777425</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6282,6 +6457,9 @@
       <c r="F58" t="n">
         <v>0.000081081657933339</v>
       </c>
+      <c r="G58" t="n">
+        <v>0.000081081657933339</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6302,6 +6480,9 @@
       <c r="F59" t="n">
         <v>1.23560498794899</v>
       </c>
+      <c r="G59" t="n">
+        <v>1.23560498794899</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6322,6 +6503,9 @@
       <c r="F60" t="n">
         <v>0.00760393076745432</v>
       </c>
+      <c r="G60" t="n">
+        <v>0.00760393076745432</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6342,6 +6526,9 @@
       <c r="F61" t="n">
         <v>1.43197683916937</v>
       </c>
+      <c r="G61" t="n">
+        <v>1.43197683916937</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6362,6 +6549,9 @@
       <c r="F62" t="n">
         <v>0.0000128581327256362</v>
       </c>
+      <c r="G62" t="n">
+        <v>0.0000128581327256362</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6382,6 +6572,9 @@
       <c r="F63" t="n">
         <v>0.827177872775564</v>
       </c>
+      <c r="G63" t="n">
+        <v>0.827177872775564</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6402,6 +6595,9 @@
       <c r="F64" t="n">
         <v>0.556181121154481</v>
       </c>
+      <c r="G64" t="n">
+        <v>0.556181121154481</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6422,6 +6618,9 @@
       <c r="F65" t="n">
         <v>0.592907298292891</v>
       </c>
+      <c r="G65" t="n">
+        <v>0.592907298292891</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6442,6 +6641,9 @@
       <c r="F66" t="n">
         <v>0.451676181414138</v>
       </c>
+      <c r="G66" t="n">
+        <v>0.451676181414138</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6462,6 +6664,9 @@
       <c r="F67" t="n">
         <v>0.816703686607063</v>
       </c>
+      <c r="G67" t="n">
+        <v>0.816703686607063</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -6482,6 +6687,9 @@
       <c r="F68" t="n">
         <v>1.27664633991094</v>
       </c>
+      <c r="G68" t="n">
+        <v>1.27664633991094</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -6502,6 +6710,9 @@
       <c r="F69" t="n">
         <v>0.700953619919727</v>
       </c>
+      <c r="G69" t="n">
+        <v>0.700953619919727</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -6522,6 +6733,9 @@
       <c r="F70" t="n">
         <v>1.30435399035123</v>
       </c>
+      <c r="G70" t="n">
+        <v>1.30435399035123</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -6542,6 +6756,9 @@
       <c r="F71" t="n">
         <v>1.14925161430213</v>
       </c>
+      <c r="G71" t="n">
+        <v>1.14925161430213</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -6562,6 +6779,9 @@
       <c r="F72" t="n">
         <v>0.727437665201636</v>
       </c>
+      <c r="G72" t="n">
+        <v>0.727437665201636</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -6582,6 +6802,9 @@
       <c r="F73" t="n">
         <v>0.615379564316268</v>
       </c>
+      <c r="G73" t="n">
+        <v>0.615379564316268</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -6602,6 +6825,9 @@
       <c r="F74" t="n">
         <v>0.995222295577187</v>
       </c>
+      <c r="G74" t="n">
+        <v>0.995222295577187</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -6622,6 +6848,9 @@
       <c r="F75" t="n">
         <v>0.538330991499669</v>
       </c>
+      <c r="G75" t="n">
+        <v>0.538330991499669</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -6642,6 +6871,9 @@
       <c r="F76" t="n">
         <v>1.11635171704675</v>
       </c>
+      <c r="G76" t="n">
+        <v>1.11635171704675</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -6662,6 +6894,9 @@
       <c r="F77" t="n">
         <v>0.715303764728961</v>
       </c>
+      <c r="G77" t="n">
+        <v>0.715303764728961</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -6682,6 +6917,9 @@
       <c r="F78" t="n">
         <v>0.0021171180248835</v>
       </c>
+      <c r="G78" t="n">
+        <v>0.0021171180248835</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -6702,6 +6940,9 @@
       <c r="F79" t="n">
         <v>0.318676798472924</v>
       </c>
+      <c r="G79" t="n">
+        <v>0.318676798472924</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -6722,6 +6963,9 @@
       <c r="F80" t="n">
         <v>0.0274921769157884</v>
       </c>
+      <c r="G80" t="n">
+        <v>0.0274921769157884</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -6742,6 +6986,9 @@
       <c r="F81" t="n">
         <v>1.40931985207031</v>
       </c>
+      <c r="G81" t="n">
+        <v>1.40931985207031</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -6762,6 +7009,9 @@
       <c r="F82" t="n">
         <v>0.762539617929372</v>
       </c>
+      <c r="G82" t="n">
+        <v>0.762539617929372</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -6782,6 +7032,9 @@
       <c r="F83" t="n">
         <v>0.874375177692241</v>
       </c>
+      <c r="G83" t="n">
+        <v>0.874375177692241</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -6802,6 +7055,9 @@
       <c r="F84" t="n">
         <v>0.000143164197821848</v>
       </c>
+      <c r="G84" t="n">
+        <v>0.000143164197821848</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -6822,6 +7078,9 @@
       <c r="F85" t="n">
         <v>0.00981825496859748</v>
       </c>
+      <c r="G85" t="n">
+        <v>0.00981825496859748</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -6842,6 +7101,9 @@
       <c r="F86" t="n">
         <v>0.488672996846268</v>
       </c>
+      <c r="G86" t="n">
+        <v>0.488672996846268</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -6862,6 +7124,9 @@
       <c r="F87" t="n">
         <v>0.00012293264085098</v>
       </c>
+      <c r="G87" t="n">
+        <v>0.00012293264085098</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6882,6 +7147,9 @@
       <c r="F88" t="n">
         <v>0.454856325909181</v>
       </c>
+      <c r="G88" t="n">
+        <v>0.454856325909181</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6902,6 +7170,9 @@
       <c r="F89" t="n">
         <v>0.000207502752245351</v>
       </c>
+      <c r="G89" t="n">
+        <v>0.000207502752245351</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -6922,6 +7193,9 @@
       <c r="F90" t="n">
         <v>0.000432170962157578</v>
       </c>
+      <c r="G90" t="n">
+        <v>0.000432170962157578</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -6942,6 +7216,9 @@
       <c r="F91" t="n">
         <v>1.01743369417619</v>
       </c>
+      <c r="G91" t="n">
+        <v>1.01743369417619</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -6962,6 +7239,9 @@
       <c r="F92" t="n">
         <v>1.05778698842483</v>
       </c>
+      <c r="G92" t="n">
+        <v>1.05778698842483</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6982,6 +7262,9 @@
       <c r="F93" t="n">
         <v>0.493982123466754</v>
       </c>
+      <c r="G93" t="n">
+        <v>0.493982123466754</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -7002,6 +7285,9 @@
       <c r="F94" t="n">
         <v>0.00127800251966911</v>
       </c>
+      <c r="G94" t="n">
+        <v>0.00127800251966911</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -7022,6 +7308,9 @@
       <c r="F95" t="n">
         <v>1.73632174179434</v>
       </c>
+      <c r="G95" t="n">
+        <v>1.73632174179434</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -7042,6 +7331,9 @@
       <c r="F96" t="n">
         <v>1.70689623531518</v>
       </c>
+      <c r="G96" t="n">
+        <v>1.70689623531518</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -7062,6 +7354,9 @@
       <c r="F97" t="n">
         <v>0.0000728067744915109</v>
       </c>
+      <c r="G97" t="n">
+        <v>0.0000728067744915109</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -7082,6 +7377,9 @@
       <c r="F98" t="n">
         <v>0.0000522147015342564</v>
       </c>
+      <c r="G98" t="n">
+        <v>0.0000522147015342564</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -7102,6 +7400,9 @@
       <c r="F99" t="n">
         <v>1.3503230098737</v>
       </c>
+      <c r="G99" t="n">
+        <v>1.3503230098737</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -7122,6 +7423,9 @@
       <c r="F100" t="n">
         <v>0.820177636769287</v>
       </c>
+      <c r="G100" t="n">
+        <v>0.820177636769287</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -7142,6 +7446,9 @@
       <c r="F101" t="n">
         <v>0.0000710717787894447</v>
       </c>
+      <c r="G101" t="n">
+        <v>0.0000710717787894447</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -7162,6 +7469,9 @@
       <c r="F102" t="n">
         <v>0.322869499462429</v>
       </c>
+      <c r="G102" t="n">
+        <v>0.322869499462429</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -7182,6 +7492,9 @@
       <c r="F103" t="n">
         <v>0.0864674123666116</v>
       </c>
+      <c r="G103" t="n">
+        <v>0.0864674123666116</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -7202,6 +7515,9 @@
       <c r="F104" t="n">
         <v>0.0023800906236569</v>
       </c>
+      <c r="G104" t="n">
+        <v>0.0023800906236569</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -7222,6 +7538,9 @@
       <c r="F105" t="n">
         <v>0.591092130683369</v>
       </c>
+      <c r="G105" t="n">
+        <v>0.591092130683369</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -7242,6 +7561,9 @@
       <c r="F106" t="n">
         <v>0.440786483556633</v>
       </c>
+      <c r="G106" t="n">
+        <v>0.440786483556633</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -7262,6 +7584,9 @@
       <c r="F107" t="n">
         <v>0.0000266405821532418</v>
       </c>
+      <c r="G107" t="n">
+        <v>0.0000266405821532418</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -7282,6 +7607,9 @@
       <c r="F108" t="n">
         <v>0.00355114758707044</v>
       </c>
+      <c r="G108" t="n">
+        <v>0.00355114758707044</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -7302,6 +7630,9 @@
       <c r="F109" t="n">
         <v>1.41445295112728</v>
       </c>
+      <c r="G109" t="n">
+        <v>1.41445295112728</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -7322,6 +7653,9 @@
       <c r="F110" t="n">
         <v>1.12200610035983</v>
       </c>
+      <c r="G110" t="n">
+        <v>1.12200610035983</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -7342,6 +7676,9 @@
       <c r="F111" t="n">
         <v>0.0000185105922044435</v>
       </c>
+      <c r="G111" t="n">
+        <v>0.0000185105922044435</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -7362,6 +7699,9 @@
       <c r="F112" t="n">
         <v>1.01881547273819</v>
       </c>
+      <c r="G112" t="n">
+        <v>1.01881547273819</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7382,6 +7722,9 @@
       <c r="F113" t="n">
         <v>0.652974640339989</v>
       </c>
+      <c r="G113" t="n">
+        <v>0.652974640339989</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7402,6 +7745,9 @@
       <c r="F114" t="n">
         <v>0.662209623179533</v>
       </c>
+      <c r="G114" t="n">
+        <v>0.662209623179533</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7422,6 +7768,9 @@
       <c r="F115" t="n">
         <v>1.04131661334536</v>
       </c>
+      <c r="G115" t="n">
+        <v>1.04131661334536</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7442,6 +7791,9 @@
       <c r="F116" t="n">
         <v>0.938640731333413</v>
       </c>
+      <c r="G116" t="n">
+        <v>0.938640731333413</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -7462,6 +7814,9 @@
       <c r="F117" t="n">
         <v>0.449463565698583</v>
       </c>
+      <c r="G117" t="n">
+        <v>0.449463565698583</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7482,6 +7837,9 @@
       <c r="F118" t="n">
         <v>0.0593667109592654</v>
       </c>
+      <c r="G118" t="n">
+        <v>0.0593667109592654</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7502,6 +7860,9 @@
       <c r="F119" t="n">
         <v>1.05486289417188</v>
       </c>
+      <c r="G119" t="n">
+        <v>1.05486289417188</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7522,6 +7883,9 @@
       <c r="F120" t="n">
         <v>0.641880085529871</v>
       </c>
+      <c r="G120" t="n">
+        <v>0.641880085529871</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -7542,6 +7906,9 @@
       <c r="F121" t="n">
         <v>0.426910406250998</v>
       </c>
+      <c r="G121" t="n">
+        <v>0.426910406250998</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7562,6 +7929,9 @@
       <c r="F122" t="n">
         <v>0.000680822291643083</v>
       </c>
+      <c r="G122" t="n">
+        <v>0.000680822291643083</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7582,6 +7952,9 @@
       <c r="F123" t="n">
         <v>1.71880258808383</v>
       </c>
+      <c r="G123" t="n">
+        <v>1.71880258808383</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7602,6 +7975,9 @@
       <c r="F124" t="n">
         <v>0.000104855559083691</v>
       </c>
+      <c r="G124" t="n">
+        <v>0.000104855559083691</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7622,6 +7998,9 @@
       <c r="F125" t="n">
         <v>0.00556466516741377</v>
       </c>
+      <c r="G125" t="n">
+        <v>0.00556466516741377</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7642,6 +8021,9 @@
       <c r="F126" t="n">
         <v>1.19786306125924</v>
       </c>
+      <c r="G126" t="n">
+        <v>1.19786306125924</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7662,6 +8044,9 @@
       <c r="F127" t="n">
         <v>1.25448980255048</v>
       </c>
+      <c r="G127" t="n">
+        <v>1.25448980255048</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -7682,6 +8067,9 @@
       <c r="F128" t="n">
         <v>1.05654792359943</v>
       </c>
+      <c r="G128" t="n">
+        <v>1.05654792359943</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -7702,6 +8090,9 @@
       <c r="F129" t="n">
         <v>0.0000813102256913609</v>
       </c>
+      <c r="G129" t="n">
+        <v>0.0000813102256913609</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -7722,6 +8113,9 @@
       <c r="F130" t="n">
         <v>0.295824654973545</v>
       </c>
+      <c r="G130" t="n">
+        <v>0.295824654973545</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -7742,6 +8136,9 @@
       <c r="F131" t="n">
         <v>0.814865435150213</v>
       </c>
+      <c r="G131" t="n">
+        <v>0.814865435150213</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -7762,6 +8159,9 @@
       <c r="F132" t="n">
         <v>1.06654297272186</v>
       </c>
+      <c r="G132" t="n">
+        <v>1.06654297272186</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -7782,6 +8182,9 @@
       <c r="F133" t="n">
         <v>0.000107271574871214</v>
       </c>
+      <c r="G133" t="n">
+        <v>0.000107271574871214</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -7802,6 +8205,9 @@
       <c r="F134" t="n">
         <v>0.0999140539470419</v>
       </c>
+      <c r="G134" t="n">
+        <v>0.0999140539470419</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -7822,6 +8228,9 @@
       <c r="F135" t="n">
         <v>0.697164380754561</v>
       </c>
+      <c r="G135" t="n">
+        <v>0.697164380754561</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -7842,6 +8251,9 @@
       <c r="F136" t="n">
         <v>0.0000143416613560919</v>
       </c>
+      <c r="G136" t="n">
+        <v>0.0000143416613560919</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -7862,6 +8274,9 @@
       <c r="F137" t="n">
         <v>0.001922778716836</v>
       </c>
+      <c r="G137" t="n">
+        <v>0.001922778716836</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -7882,6 +8297,9 @@
       <c r="F138" t="n">
         <v>0.753860314394355</v>
       </c>
+      <c r="G138" t="n">
+        <v>0.753860314394355</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -7902,6 +8320,9 @@
       <c r="F139" t="n">
         <v>0.538529019619024</v>
       </c>
+      <c r="G139" t="n">
+        <v>0.538529019619024</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -7922,6 +8343,9 @@
       <c r="F140" t="n">
         <v>0.464348573584762</v>
       </c>
+      <c r="G140" t="n">
+        <v>0.464348573584762</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -7942,6 +8366,9 @@
       <c r="F141" t="n">
         <v>0.000264786103394655</v>
       </c>
+      <c r="G141" t="n">
+        <v>0.000264786103394655</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -7962,6 +8389,9 @@
       <c r="F142" t="n">
         <v>0.544578034990965</v>
       </c>
+      <c r="G142" t="n">
+        <v>0.544578034990965</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -7982,6 +8412,9 @@
       <c r="F143" t="n">
         <v>0.685513129554393</v>
       </c>
+      <c r="G143" t="n">
+        <v>0.685513129554393</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -8002,6 +8435,9 @@
       <c r="F144" t="n">
         <v>0.0000820474513034866</v>
       </c>
+      <c r="G144" t="n">
+        <v>0.0000820474513034866</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -8022,6 +8458,9 @@
       <c r="F145" t="n">
         <v>0.0000174468536555529</v>
       </c>
+      <c r="G145" t="n">
+        <v>0.0000174468536555529</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -8042,6 +8481,9 @@
       <c r="F146" t="n">
         <v>0.337977239664457</v>
       </c>
+      <c r="G146" t="n">
+        <v>0.337977239664457</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -8062,6 +8504,9 @@
       <c r="F147" t="n">
         <v>0.440083017567528</v>
       </c>
+      <c r="G147" t="n">
+        <v>0.440083017567528</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -8082,6 +8527,9 @@
       <c r="F148" t="n">
         <v>0.000537575805252578</v>
       </c>
+      <c r="G148" t="n">
+        <v>0.000537575805252578</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -8102,6 +8550,9 @@
       <c r="F149" t="n">
         <v>1.06773256346851</v>
       </c>
+      <c r="G149" t="n">
+        <v>1.06773256346851</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -8122,6 +8573,9 @@
       <c r="F150" t="n">
         <v>1.73693739898548</v>
       </c>
+      <c r="G150" t="n">
+        <v>1.73693739898548</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -8142,6 +8596,9 @@
       <c r="F151" t="n">
         <v>0.871310294694682</v>
       </c>
+      <c r="G151" t="n">
+        <v>0.871310294694682</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -8162,6 +8619,9 @@
       <c r="F152" t="n">
         <v>0.798705319973476</v>
       </c>
+      <c r="G152" t="n">
+        <v>0.798705319973476</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -8182,6 +8642,9 @@
       <c r="F153" t="n">
         <v>0.551188489899621</v>
       </c>
+      <c r="G153" t="n">
+        <v>0.551188489899621</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -8202,6 +8665,9 @@
       <c r="F154" t="n">
         <v>0.756622811485212</v>
       </c>
+      <c r="G154" t="n">
+        <v>0.756622811485212</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -8222,6 +8688,9 @@
       <c r="F155" t="n">
         <v>0.150186459311685</v>
       </c>
+      <c r="G155" t="n">
+        <v>0.150186459311685</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -8242,6 +8711,9 @@
       <c r="F156" t="n">
         <v>0.972781418957444</v>
       </c>
+      <c r="G156" t="n">
+        <v>0.972781418957444</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -8262,6 +8734,9 @@
       <c r="F157" t="n">
         <v>0.734443079417251</v>
       </c>
+      <c r="G157" t="n">
+        <v>0.734443079417251</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -8282,6 +8757,9 @@
       <c r="F158" t="n">
         <v>1.72841693256334</v>
       </c>
+      <c r="G158" t="n">
+        <v>1.72841693256334</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -8302,6 +8780,9 @@
       <c r="F159" t="n">
         <v>0.000577291124454647</v>
       </c>
+      <c r="G159" t="n">
+        <v>0.000577291124454647</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -8322,6 +8803,9 @@
       <c r="F160" t="n">
         <v>1.55842329262824</v>
       </c>
+      <c r="G160" t="n">
+        <v>1.55842329262824</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -8342,6 +8826,9 @@
       <c r="F161" t="n">
         <v>1.31945495521213</v>
       </c>
+      <c r="G161" t="n">
+        <v>1.31945495521213</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -8362,6 +8849,9 @@
       <c r="F162" t="n">
         <v>0.000123122270208732</v>
       </c>
+      <c r="G162" t="n">
+        <v>0.000123122270208732</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -8382,6 +8872,9 @@
       <c r="F163" t="n">
         <v>1.56644150693421</v>
       </c>
+      <c r="G163" t="n">
+        <v>1.56644150693421</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -8402,6 +8895,9 @@
       <c r="F164" t="n">
         <v>0.892294781926097</v>
       </c>
+      <c r="G164" t="n">
+        <v>0.892294781926097</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -8422,6 +8918,9 @@
       <c r="F165" t="n">
         <v>0.420812585679183</v>
       </c>
+      <c r="G165" t="n">
+        <v>0.420812585679183</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -8442,6 +8941,9 @@
       <c r="F166" t="n">
         <v>0.00119562192917168</v>
       </c>
+      <c r="G166" t="n">
+        <v>0.00119562192917168</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -8462,6 +8964,9 @@
       <c r="F167" t="n">
         <v>0.799389954406415</v>
       </c>
+      <c r="G167" t="n">
+        <v>0.799389954406415</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -8482,6 +8987,9 @@
       <c r="F168" t="n">
         <v>0.0000467300391359841</v>
       </c>
+      <c r="G168" t="n">
+        <v>0.0000467300391359841</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -8502,6 +9010,9 @@
       <c r="F169" t="n">
         <v>1.0780590587344</v>
       </c>
+      <c r="G169" t="n">
+        <v>1.0780590587344</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -8522,6 +9033,9 @@
       <c r="F170" t="n">
         <v>0.000481059955903853</v>
       </c>
+      <c r="G170" t="n">
+        <v>0.000481059955903853</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -8542,6 +9056,9 @@
       <c r="F171" t="n">
         <v>0.00000790196330140142</v>
       </c>
+      <c r="G171" t="n">
+        <v>0.00000790196330140142</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -8562,6 +9079,9 @@
       <c r="F172" t="n">
         <v>0.951906625932375</v>
       </c>
+      <c r="G172" t="n">
+        <v>0.951906625932375</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -8582,6 +9102,9 @@
       <c r="F173" t="n">
         <v>0.0000426029706796378</v>
       </c>
+      <c r="G173" t="n">
+        <v>0.0000426029706796378</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -8602,6 +9125,9 @@
       <c r="F174" t="n">
         <v>0.35187599419187</v>
       </c>
+      <c r="G174" t="n">
+        <v>0.35187599419187</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -8622,6 +9148,9 @@
       <c r="F175" t="n">
         <v>0.000021707682007401</v>
       </c>
+      <c r="G175" t="n">
+        <v>0.000021707682007401</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -8642,6 +9171,9 @@
       <c r="F176" t="n">
         <v>1.70549895969318</v>
       </c>
+      <c r="G176" t="n">
+        <v>1.70549895969318</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -8662,6 +9194,9 @@
       <c r="F177" t="n">
         <v>1.10079521341247</v>
       </c>
+      <c r="G177" t="n">
+        <v>1.10079521341247</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -8682,6 +9217,9 @@
       <c r="F178" t="n">
         <v>0.263052873402876</v>
       </c>
+      <c r="G178" t="n">
+        <v>0.263052873402876</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -8702,6 +9240,9 @@
       <c r="F179" t="n">
         <v>0.696897975619849</v>
       </c>
+      <c r="G179" t="n">
+        <v>0.696897975619849</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -8722,6 +9263,9 @@
       <c r="F180" t="n">
         <v>0.345067555451149</v>
       </c>
+      <c r="G180" t="n">
+        <v>0.345067555451149</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -8742,6 +9286,9 @@
       <c r="F181" t="n">
         <v>0.00000445856283139615</v>
       </c>
+      <c r="G181" t="n">
+        <v>0.00000445856283139615</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -8762,6 +9309,9 @@
       <c r="F182" t="n">
         <v>0.000571588065224894</v>
       </c>
+      <c r="G182" t="n">
+        <v>0.000571588065224894</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -8782,6 +9332,9 @@
       <c r="F183" t="n">
         <v>0.0000266534473853076</v>
       </c>
+      <c r="G183" t="n">
+        <v>0.0000266534473853076</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -8802,6 +9355,9 @@
       <c r="F184" t="n">
         <v>0.210083202242828</v>
       </c>
+      <c r="G184" t="n">
+        <v>0.210083202242828</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -8822,6 +9378,9 @@
       <c r="F185" t="n">
         <v>1.08258202775195</v>
       </c>
+      <c r="G185" t="n">
+        <v>1.08258202775195</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -8842,6 +9401,9 @@
       <c r="F186" t="n">
         <v>0.923755854876152</v>
       </c>
+      <c r="G186" t="n">
+        <v>0.923755854876152</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -8862,6 +9424,9 @@
       <c r="F187" t="n">
         <v>0.864681083150684</v>
       </c>
+      <c r="G187" t="n">
+        <v>0.864681083150684</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -8882,6 +9447,9 @@
       <c r="F188" t="n">
         <v>0.842856648584544</v>
       </c>
+      <c r="G188" t="n">
+        <v>0.842856648584544</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -8902,6 +9470,9 @@
       <c r="F189" t="n">
         <v>0.842969287781419</v>
       </c>
+      <c r="G189" t="n">
+        <v>0.842969287781419</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -8922,6 +9493,9 @@
       <c r="F190" t="n">
         <v>0.443569140715275</v>
       </c>
+      <c r="G190" t="n">
+        <v>0.443569140715275</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -8942,6 +9516,9 @@
       <c r="F191" t="n">
         <v>0.0000278856832901631</v>
       </c>
+      <c r="G191" t="n">
+        <v>0.0000278856832901631</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -8962,6 +9539,9 @@
       <c r="F192" t="n">
         <v>0.622312919155704</v>
       </c>
+      <c r="G192" t="n">
+        <v>0.622312919155704</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -8982,6 +9562,9 @@
       <c r="F193" t="n">
         <v>0.00368871423943212</v>
       </c>
+      <c r="G193" t="n">
+        <v>0.00368871423943212</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -9002,6 +9585,9 @@
       <c r="F194" t="n">
         <v>1.15323656759868</v>
       </c>
+      <c r="G194" t="n">
+        <v>1.15323656759868</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -9022,6 +9608,9 @@
       <c r="F195" t="n">
         <v>0.0000418055991350451</v>
       </c>
+      <c r="G195" t="n">
+        <v>0.0000418055991350451</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -9042,6 +9631,9 @@
       <c r="F196" t="n">
         <v>0.00014227574498716</v>
       </c>
+      <c r="G196" t="n">
+        <v>0.00014227574498716</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -9062,6 +9654,9 @@
       <c r="F197" t="n">
         <v>0.0000913691428286058</v>
       </c>
+      <c r="G197" t="n">
+        <v>0.0000913691428286058</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -9082,6 +9677,9 @@
       <c r="F198" t="n">
         <v>1.33298069492243</v>
       </c>
+      <c r="G198" t="n">
+        <v>1.33298069492243</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -9102,6 +9700,9 @@
       <c r="F199" t="n">
         <v>0.736780122616249</v>
       </c>
+      <c r="G199" t="n">
+        <v>0.736780122616249</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -9122,6 +9723,9 @@
       <c r="F200" t="n">
         <v>0.000462335517194042</v>
       </c>
+      <c r="G200" t="n">
+        <v>0.000462335517194042</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -9142,6 +9746,9 @@
       <c r="F201" t="n">
         <v>0.679315765385315</v>
       </c>
+      <c r="G201" t="n">
+        <v>0.679315765385315</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -9162,6 +9769,9 @@
       <c r="F202" t="n">
         <v>0.00174269859890634</v>
       </c>
+      <c r="G202" t="n">
+        <v>0.00174269859890634</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -9182,6 +9792,9 @@
       <c r="F203" t="n">
         <v>0.194477601884438</v>
       </c>
+      <c r="G203" t="n">
+        <v>0.194477601884438</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -9202,6 +9815,9 @@
       <c r="F204" t="n">
         <v>1.31014192771171</v>
       </c>
+      <c r="G204" t="n">
+        <v>1.31014192771171</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -9222,6 +9838,9 @@
       <c r="F205" t="n">
         <v>0.00240974057671177</v>
       </c>
+      <c r="G205" t="n">
+        <v>0.00240974057671177</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -9242,6 +9861,9 @@
       <c r="F206" t="n">
         <v>1.31888241292436</v>
       </c>
+      <c r="G206" t="n">
+        <v>1.31888241292436</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -9262,6 +9884,9 @@
       <c r="F207" t="n">
         <v>0.309837324913813</v>
       </c>
+      <c r="G207" t="n">
+        <v>0.309837324913813</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -9282,6 +9907,9 @@
       <c r="F208" t="n">
         <v>0.325257965607744</v>
       </c>
+      <c r="G208" t="n">
+        <v>0.325257965607744</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -9302,6 +9930,9 @@
       <c r="F209" t="n">
         <v>0.319721971910408</v>
       </c>
+      <c r="G209" t="n">
+        <v>0.319721971910408</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -9322,6 +9953,9 @@
       <c r="F210" t="n">
         <v>0.00138325394749674</v>
       </c>
+      <c r="G210" t="n">
+        <v>0.00138325394749674</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -9342,6 +9976,9 @@
       <c r="F211" t="n">
         <v>0.00949938425765713</v>
       </c>
+      <c r="G211" t="n">
+        <v>0.00949938425765713</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -9362,6 +9999,9 @@
       <c r="F212" t="n">
         <v>0.0776326847816766</v>
       </c>
+      <c r="G212" t="n">
+        <v>0.0776326847816766</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -9382,6 +10022,9 @@
       <c r="F213" t="n">
         <v>0.0241255797228143</v>
       </c>
+      <c r="G213" t="n">
+        <v>0.0241255797228143</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -9402,6 +10045,9 @@
       <c r="F214" t="n">
         <v>0.000130638950302605</v>
       </c>
+      <c r="G214" t="n">
+        <v>0.000130638950302605</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -9422,6 +10068,9 @@
       <c r="F215" t="n">
         <v>0.000528558166202395</v>
       </c>
+      <c r="G215" t="n">
+        <v>0.000528558166202395</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -9442,6 +10091,9 @@
       <c r="F216" t="n">
         <v>0.842282447515073</v>
       </c>
+      <c r="G216" t="n">
+        <v>0.842282447515073</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -9460,6 +10112,9 @@
         <v>3.40900930205</v>
       </c>
       <c r="F217" t="n">
+        <v>14.036854232703</v>
+      </c>
+      <c r="G217" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9482,6 +10137,9 @@
       <c r="F218" t="n">
         <v>0.509654843149866</v>
       </c>
+      <c r="G218" t="n">
+        <v>0.509654843149866</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -9502,6 +10160,9 @@
       <c r="F219" t="n">
         <v>0.697911165038093</v>
       </c>
+      <c r="G219" t="n">
+        <v>0.697911165038093</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -9520,6 +10181,9 @@
         <v>1.86878205155</v>
       </c>
       <c r="F220" t="n">
+        <v>14.3882779064439</v>
+      </c>
+      <c r="G220" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9542,6 +10206,9 @@
       <c r="F221" t="n">
         <v>1.47682644147516</v>
       </c>
+      <c r="G221" t="n">
+        <v>1.47682644147516</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -9562,6 +10229,9 @@
       <c r="F222" t="n">
         <v>0.172395283613944</v>
       </c>
+      <c r="G222" t="n">
+        <v>0.172395283613944</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -9582,6 +10252,9 @@
       <c r="F223" t="n">
         <v>0.714260922223039</v>
       </c>
+      <c r="G223" t="n">
+        <v>0.714260922223039</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -9602,6 +10275,9 @@
       <c r="F224" t="n">
         <v>0.679715711875567</v>
       </c>
+      <c r="G224" t="n">
+        <v>0.679715711875567</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -9620,6 +10296,9 @@
         <v>1.90876555868</v>
       </c>
       <c r="F225" t="n">
+        <v>2.28756017530863</v>
+      </c>
+      <c r="G225" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9642,6 +10321,9 @@
       <c r="F226" t="n">
         <v>0.459919641981858</v>
       </c>
+      <c r="G226" t="n">
+        <v>0.459919641981858</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -9662,6 +10344,9 @@
       <c r="F227" t="n">
         <v>0.00043934922707716</v>
       </c>
+      <c r="G227" t="n">
+        <v>0.00043934922707716</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -9680,6 +10365,9 @@
         <v>0.00733941756</v>
       </c>
       <c r="F228" t="n">
+        <v>5.79870901011775</v>
+      </c>
+      <c r="G228" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9702,6 +10390,9 @@
       <c r="F229" t="n">
         <v>0.0447421146706696</v>
       </c>
+      <c r="G229" t="n">
+        <v>0.0447421146706696</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -9722,6 +10413,9 @@
       <c r="F230" t="n">
         <v>0.00556069637710122</v>
       </c>
+      <c r="G230" t="n">
+        <v>0.00556069637710122</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -9742,6 +10436,9 @@
       <c r="F231" t="n">
         <v>0.200488402005378</v>
       </c>
+      <c r="G231" t="n">
+        <v>0.200488402005378</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -9762,6 +10459,9 @@
       <c r="F232" t="n">
         <v>0.784244069123903</v>
       </c>
+      <c r="G232" t="n">
+        <v>0.784244069123903</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -9782,6 +10482,9 @@
       <c r="F233" t="n">
         <v>0.89927948224984</v>
       </c>
+      <c r="G233" t="n">
+        <v>0.89927948224984</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -9802,6 +10505,9 @@
       <c r="F234" t="n">
         <v>1.28474238708121</v>
       </c>
+      <c r="G234" t="n">
+        <v>1.28474238708121</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -9822,6 +10528,9 @@
       <c r="F235" t="n">
         <v>0.818975884716312</v>
       </c>
+      <c r="G235" t="n">
+        <v>0.818975884716312</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -9842,6 +10551,9 @@
       <c r="F236" t="n">
         <v>0.00338555666631041</v>
       </c>
+      <c r="G236" t="n">
+        <v>0.00338555666631041</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -9862,6 +10574,9 @@
       <c r="F237" t="n">
         <v>0.39207580222363</v>
       </c>
+      <c r="G237" t="n">
+        <v>0.39207580222363</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -9882,6 +10597,9 @@
       <c r="F238" t="n">
         <v>0.247727255689983</v>
       </c>
+      <c r="G238" t="n">
+        <v>0.247727255689983</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -9902,6 +10620,9 @@
       <c r="F239" t="n">
         <v>0.720227839499147</v>
       </c>
+      <c r="G239" t="n">
+        <v>0.720227839499147</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -9922,6 +10643,9 @@
       <c r="F240" t="n">
         <v>0.000251541882979664</v>
       </c>
+      <c r="G240" t="n">
+        <v>0.000251541882979664</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -9940,6 +10664,9 @@
         <v>1.5987752838</v>
       </c>
       <c r="F241" t="n">
+        <v>2.19737156507854</v>
+      </c>
+      <c r="G241" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9960,6 +10687,9 @@
         <v>14.33079745472</v>
       </c>
       <c r="F242" t="n">
+        <v>20.0949422507864</v>
+      </c>
+      <c r="G242" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9982,6 +10712,9 @@
       <c r="F243" t="n">
         <v>0.579769520572966</v>
       </c>
+      <c r="G243" t="n">
+        <v>0.579769520572966</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -10002,6 +10735,9 @@
       <c r="F244" t="n">
         <v>0.850561519721803</v>
       </c>
+      <c r="G244" t="n">
+        <v>0.850561519721803</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -10022,6 +10758,9 @@
       <c r="F245" t="n">
         <v>0.000156892787116369</v>
       </c>
+      <c r="G245" t="n">
+        <v>0.000156892787116369</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -10042,6 +10781,9 @@
       <c r="F246" t="n">
         <v>0.000170704259594364</v>
       </c>
+      <c r="G246" t="n">
+        <v>0.000170704259594364</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -10062,6 +10804,9 @@
       <c r="F247" t="n">
         <v>0.0000949901328018233</v>
       </c>
+      <c r="G247" t="n">
+        <v>0.0000949901328018233</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -10082,6 +10827,9 @@
       <c r="F248" t="n">
         <v>0.000177482291924854</v>
       </c>
+      <c r="G248" t="n">
+        <v>0.000177482291924854</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -10102,6 +10850,9 @@
       <c r="F249" t="n">
         <v>0.000272693974634469</v>
       </c>
+      <c r="G249" t="n">
+        <v>0.000272693974634469</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -10122,6 +10873,9 @@
       <c r="F250" t="n">
         <v>0.0100396742599848</v>
       </c>
+      <c r="G250" t="n">
+        <v>0.0100396742599848</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -10142,6 +10896,9 @@
       <c r="F251" t="n">
         <v>0.000213288730241335</v>
       </c>
+      <c r="G251" t="n">
+        <v>0.000213288730241335</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -10162,6 +10919,9 @@
       <c r="F252" t="n">
         <v>1.16349568478638</v>
       </c>
+      <c r="G252" t="n">
+        <v>1.16349568478638</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -10180,6 +10940,9 @@
         <v>31.69244282368</v>
       </c>
       <c r="F253" t="n">
+        <v>24.6524497290164</v>
+      </c>
+      <c r="G253" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10200,6 +10963,9 @@
         <v>2.0221966916</v>
       </c>
       <c r="F254" t="n">
+        <v>4.89947590004389</v>
+      </c>
+      <c r="G254" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10222,6 +10988,9 @@
       <c r="F255" t="n">
         <v>0.00001373246480272</v>
       </c>
+      <c r="G255" t="n">
+        <v>0.00001373246480272</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -10242,6 +11011,9 @@
       <c r="F256" t="n">
         <v>0.206895386875323</v>
       </c>
+      <c r="G256" t="n">
+        <v>0.206895386875323</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -10262,6 +11034,9 @@
       <c r="F257" t="n">
         <v>0.273906545980234</v>
       </c>
+      <c r="G257" t="n">
+        <v>0.273906545980234</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -10282,6 +11057,9 @@
       <c r="F258" t="n">
         <v>0.517160788065743</v>
       </c>
+      <c r="G258" t="n">
+        <v>0.517160788065743</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -10302,6 +11080,9 @@
       <c r="F259" t="n">
         <v>0.00266832015138885</v>
       </c>
+      <c r="G259" t="n">
+        <v>0.00266832015138885</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -10322,6 +11103,9 @@
       <c r="F260" t="n">
         <v>0.314282186876232</v>
       </c>
+      <c r="G260" t="n">
+        <v>0.314282186876232</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -10342,6 +11126,9 @@
       <c r="F261" t="n">
         <v>0.207873646378049</v>
       </c>
+      <c r="G261" t="n">
+        <v>0.207873646378049</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -10362,6 +11149,9 @@
       <c r="F262" t="n">
         <v>0.792687738209574</v>
       </c>
+      <c r="G262" t="n">
+        <v>0.792687738209574</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -10382,6 +11172,9 @@
       <c r="F263" t="n">
         <v>1.11949500568236</v>
       </c>
+      <c r="G263" t="n">
+        <v>1.11949500568236</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -10402,6 +11195,9 @@
       <c r="F264" t="n">
         <v>0.000331427504975125</v>
       </c>
+      <c r="G264" t="n">
+        <v>0.000331427504975125</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -10422,6 +11218,9 @@
       <c r="F265" t="n">
         <v>0.607953750061138</v>
       </c>
+      <c r="G265" t="n">
+        <v>0.607953750061138</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -10442,6 +11241,9 @@
       <c r="F266" t="n">
         <v>0.000227267866454623</v>
       </c>
+      <c r="G266" t="n">
+        <v>0.000227267866454623</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -10462,6 +11264,9 @@
       <c r="F267" t="n">
         <v>0.000145201737805574</v>
       </c>
+      <c r="G267" t="n">
+        <v>0.000145201737805574</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -10482,6 +11287,9 @@
       <c r="F268" t="n">
         <v>1.18117881781104</v>
       </c>
+      <c r="G268" t="n">
+        <v>1.18117881781104</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -10502,6 +11310,9 @@
       <c r="F269" t="n">
         <v>0.0100477408868529</v>
       </c>
+      <c r="G269" t="n">
+        <v>0.0100477408868529</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -10522,6 +11333,9 @@
       <c r="F270" t="n">
         <v>0.147937634635291</v>
       </c>
+      <c r="G270" t="n">
+        <v>0.147937634635291</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -10542,6 +11356,9 @@
       <c r="F271" t="n">
         <v>0.993290016270286</v>
       </c>
+      <c r="G271" t="n">
+        <v>0.993290016270286</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -10562,6 +11379,9 @@
       <c r="F272" t="n">
         <v>0.00408106584469302</v>
       </c>
+      <c r="G272" t="n">
+        <v>0.00408106584469302</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -10582,6 +11402,9 @@
       <c r="F273" t="n">
         <v>0.788979787155767</v>
       </c>
+      <c r="G273" t="n">
+        <v>0.788979787155767</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -10602,6 +11425,9 @@
       <c r="F274" t="n">
         <v>0.451607633575551</v>
       </c>
+      <c r="G274" t="n">
+        <v>0.451607633575551</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -10622,6 +11448,9 @@
       <c r="F275" t="n">
         <v>0.814762120221895</v>
       </c>
+      <c r="G275" t="n">
+        <v>0.814762120221895</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -10642,6 +11471,9 @@
       <c r="F276" t="n">
         <v>0.568218655645682</v>
       </c>
+      <c r="G276" t="n">
+        <v>0.568218655645682</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -10662,6 +11494,9 @@
       <c r="F277" t="n">
         <v>0.389192787375083</v>
       </c>
+      <c r="G277" t="n">
+        <v>0.389192787375083</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -10682,6 +11517,9 @@
       <c r="F278" t="n">
         <v>0.834649222587406</v>
       </c>
+      <c r="G278" t="n">
+        <v>0.834649222587406</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -10702,6 +11540,9 @@
       <c r="F279" t="n">
         <v>0.193401014578916</v>
       </c>
+      <c r="G279" t="n">
+        <v>0.193401014578916</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -10722,6 +11563,9 @@
       <c r="F280" t="n">
         <v>0.00347904578152865</v>
       </c>
+      <c r="G280" t="n">
+        <v>0.00347904578152865</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -10742,6 +11586,9 @@
       <c r="F281" t="n">
         <v>0.250856438630189</v>
       </c>
+      <c r="G281" t="n">
+        <v>0.250856438630189</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -10762,6 +11609,9 @@
       <c r="F282" t="n">
         <v>0.00405921830183729</v>
       </c>
+      <c r="G282" t="n">
+        <v>0.00405921830183729</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -10782,6 +11632,9 @@
       <c r="F283" t="n">
         <v>0.985591759418283</v>
       </c>
+      <c r="G283" t="n">
+        <v>0.985591759418283</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -10800,6 +11653,9 @@
         <v>15.38338627698</v>
       </c>
       <c r="F284" t="n">
+        <v>14.2003672524487</v>
+      </c>
+      <c r="G284" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10822,6 +11678,9 @@
       <c r="F285" t="n">
         <v>0.000296880542903844</v>
       </c>
+      <c r="G285" t="n">
+        <v>0.000296880542903844</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -10842,6 +11701,9 @@
       <c r="F286" t="n">
         <v>0.00330088473723367</v>
       </c>
+      <c r="G286" t="n">
+        <v>0.00330088473723367</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -10862,6 +11724,9 @@
       <c r="F287" t="n">
         <v>0.00315586478791593</v>
       </c>
+      <c r="G287" t="n">
+        <v>0.00315586478791593</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -10882,6 +11747,9 @@
       <c r="F288" t="n">
         <v>1.19570630438285</v>
       </c>
+      <c r="G288" t="n">
+        <v>1.19570630438285</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -10902,6 +11770,9 @@
       <c r="F289" t="n">
         <v>0.000459564675225461</v>
       </c>
+      <c r="G289" t="n">
+        <v>0.000459564675225461</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -10922,6 +11793,9 @@
       <c r="F290" t="n">
         <v>0.810595594111005</v>
       </c>
+      <c r="G290" t="n">
+        <v>0.810595594111005</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -10942,6 +11816,9 @@
       <c r="F291" t="n">
         <v>0.643069123634129</v>
       </c>
+      <c r="G291" t="n">
+        <v>0.643069123634129</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -10962,6 +11839,9 @@
       <c r="F292" t="n">
         <v>0.00188398716911634</v>
       </c>
+      <c r="G292" t="n">
+        <v>0.00188398716911634</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -10982,6 +11862,9 @@
       <c r="F293" t="n">
         <v>1.16875258907062</v>
       </c>
+      <c r="G293" t="n">
+        <v>1.16875258907062</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -11002,6 +11885,9 @@
       <c r="F294" t="n">
         <v>0.00513679717486263</v>
       </c>
+      <c r="G294" t="n">
+        <v>0.00513679717486263</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -11022,6 +11908,9 @@
       <c r="F295" t="n">
         <v>0.00125454297907765</v>
       </c>
+      <c r="G295" t="n">
+        <v>0.00125454297907765</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -11042,6 +11931,9 @@
       <c r="F296" t="n">
         <v>0.530876990514776</v>
       </c>
+      <c r="G296" t="n">
+        <v>0.530876990514776</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -11062,6 +11954,9 @@
       <c r="F297" t="n">
         <v>0.198130615872117</v>
       </c>
+      <c r="G297" t="n">
+        <v>0.198130615872117</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -11082,6 +11977,9 @@
       <c r="F298" t="n">
         <v>0.296917228993655</v>
       </c>
+      <c r="G298" t="n">
+        <v>0.296917228993655</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -11102,6 +12000,9 @@
       <c r="F299" t="n">
         <v>0.700197761563589</v>
       </c>
+      <c r="G299" t="n">
+        <v>0.700197761563589</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -11122,6 +12023,9 @@
       <c r="F300" t="n">
         <v>0.997621902029186</v>
       </c>
+      <c r="G300" t="n">
+        <v>0.997621902029186</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -11142,6 +12046,9 @@
       <c r="F301" t="n">
         <v>0.707436086655728</v>
       </c>
+      <c r="G301" t="n">
+        <v>0.707436086655728</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -11162,6 +12069,9 @@
       <c r="F302" t="n">
         <v>0.259393229046621</v>
       </c>
+      <c r="G302" t="n">
+        <v>0.259393229046621</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -11182,6 +12092,9 @@
       <c r="F303" t="n">
         <v>0.00015630952960527</v>
       </c>
+      <c r="G303" t="n">
+        <v>0.00015630952960527</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -11202,6 +12115,9 @@
       <c r="F304" t="n">
         <v>0.0000187146154755023</v>
       </c>
+      <c r="G304" t="n">
+        <v>0.0000187146154755023</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -11220,6 +12136,9 @@
         <v>3.31346171218</v>
       </c>
       <c r="F305" t="n">
+        <v>10.5343359485755</v>
+      </c>
+      <c r="G305" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11242,6 +12161,9 @@
       <c r="F306" t="n">
         <v>0.318744900625465</v>
       </c>
+      <c r="G306" t="n">
+        <v>0.318744900625465</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -11260,6 +12182,9 @@
         <v>13.55332295199</v>
       </c>
       <c r="F307" t="n">
+        <v>20.3940704083741</v>
+      </c>
+      <c r="G307" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11282,6 +12207,9 @@
       <c r="F308" t="n">
         <v>0.00117301254057784</v>
       </c>
+      <c r="G308" t="n">
+        <v>0.00117301254057784</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -11302,6 +12230,9 @@
       <c r="F309" t="n">
         <v>0.000117759966483567</v>
       </c>
+      <c r="G309" t="n">
+        <v>0.000117759966483567</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -11320,6 +12251,9 @@
         <v>34.0261082828</v>
       </c>
       <c r="F310" t="n">
+        <v>12.1029902816353</v>
+      </c>
+      <c r="G310" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11342,6 +12276,9 @@
       <c r="F311" t="n">
         <v>0.000166210089446653</v>
       </c>
+      <c r="G311" t="n">
+        <v>0.000166210089446653</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -11362,6 +12299,9 @@
       <c r="F312" t="n">
         <v>0.000451448468038021</v>
       </c>
+      <c r="G312" t="n">
+        <v>0.000451448468038021</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -11382,6 +12322,9 @@
       <c r="F313" t="n">
         <v>0.0000428835408563236</v>
       </c>
+      <c r="G313" t="n">
+        <v>0.0000428835408563236</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -11402,6 +12345,9 @@
       <c r="F314" t="n">
         <v>0.00097710626509672</v>
       </c>
+      <c r="G314" t="n">
+        <v>0.00097710626509672</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -11422,6 +12368,9 @@
       <c r="F315" t="n">
         <v>0.964851919407957</v>
       </c>
+      <c r="G315" t="n">
+        <v>0.964851919407957</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -11442,6 +12391,9 @@
       <c r="F316" t="n">
         <v>0.256613066580065</v>
       </c>
+      <c r="G316" t="n">
+        <v>0.256613066580065</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -11462,6 +12414,9 @@
       <c r="F317" t="n">
         <v>0.886606019340598</v>
       </c>
+      <c r="G317" t="n">
+        <v>0.886606019340598</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -11482,6 +12437,9 @@
       <c r="F318" t="n">
         <v>0.00758749385675771</v>
       </c>
+      <c r="G318" t="n">
+        <v>0.00758749385675771</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -11502,6 +12460,9 @@
       <c r="F319" t="n">
         <v>1.1140631268976</v>
       </c>
+      <c r="G319" t="n">
+        <v>1.1140631268976</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -11522,6 +12483,9 @@
       <c r="F320" t="n">
         <v>0.866558620084575</v>
       </c>
+      <c r="G320" t="n">
+        <v>0.866558620084575</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -11542,6 +12506,9 @@
       <c r="F321" t="n">
         <v>1.15307980732816</v>
       </c>
+      <c r="G321" t="n">
+        <v>1.15307980732816</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -11562,6 +12529,9 @@
       <c r="F322" t="n">
         <v>0.0000752257022219587</v>
       </c>
+      <c r="G322" t="n">
+        <v>0.0000752257022219587</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -11582,6 +12552,9 @@
       <c r="F323" t="n">
         <v>1.72500001760054</v>
       </c>
+      <c r="G323" t="n">
+        <v>1.72500001760054</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -11600,6 +12573,9 @@
         <v>1.94386188763</v>
       </c>
       <c r="F324" t="n">
+        <v>20.6214674945619</v>
+      </c>
+      <c r="G324" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11622,6 +12598,9 @@
       <c r="F325" t="n">
         <v>1.13194935700667</v>
       </c>
+      <c r="G325" t="n">
+        <v>1.13194935700667</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -11642,6 +12621,9 @@
       <c r="F326" t="n">
         <v>0.00154418635111455</v>
       </c>
+      <c r="G326" t="n">
+        <v>0.00154418635111455</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -11662,6 +12644,9 @@
       <c r="F327" t="n">
         <v>0.00864893171011069</v>
       </c>
+      <c r="G327" t="n">
+        <v>0.00864893171011069</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -11682,6 +12667,9 @@
       <c r="F328" t="n">
         <v>1.2809964674279</v>
       </c>
+      <c r="G328" t="n">
+        <v>1.2809964674279</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -11702,6 +12690,9 @@
       <c r="F329" t="n">
         <v>0.000498293939947528</v>
       </c>
+      <c r="G329" t="n">
+        <v>0.000498293939947528</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -11722,6 +12713,9 @@
       <c r="F330" t="n">
         <v>0.248848399898263</v>
       </c>
+      <c r="G330" t="n">
+        <v>0.248848399898263</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -11742,6 +12736,9 @@
       <c r="F331" t="n">
         <v>0.0210333681400963</v>
       </c>
+      <c r="G331" t="n">
+        <v>0.0210333681400963</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -11762,6 +12759,9 @@
       <c r="F332" t="n">
         <v>0.486891144605678</v>
       </c>
+      <c r="G332" t="n">
+        <v>0.486891144605678</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -11780,6 +12780,9 @@
         <v>13.88595071311</v>
       </c>
       <c r="F333" t="n">
+        <v>2.28330388210001</v>
+      </c>
+      <c r="G333" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11802,6 +12805,9 @@
       <c r="F334" t="n">
         <v>0.000351061700952448</v>
       </c>
+      <c r="G334" t="n">
+        <v>0.000351061700952448</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -11822,6 +12828,9 @@
       <c r="F335" t="n">
         <v>0.00338721013695558</v>
       </c>
+      <c r="G335" t="n">
+        <v>0.00338721013695558</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -11842,6 +12851,9 @@
       <c r="F336" t="n">
         <v>0.000530382494159209</v>
       </c>
+      <c r="G336" t="n">
+        <v>0.000530382494159209</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -11862,6 +12874,9 @@
       <c r="F337" t="n">
         <v>0.902482454729236</v>
       </c>
+      <c r="G337" t="n">
+        <v>0.902482454729236</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -11882,6 +12897,9 @@
       <c r="F338" t="n">
         <v>0.000330122248261529</v>
       </c>
+      <c r="G338" t="n">
+        <v>0.000330122248261529</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -11902,6 +12920,9 @@
       <c r="F339" t="n">
         <v>0.00536218967919626</v>
       </c>
+      <c r="G339" t="n">
+        <v>0.00536218967919626</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -11922,6 +12943,9 @@
       <c r="F340" t="n">
         <v>0.000498103416499827</v>
       </c>
+      <c r="G340" t="n">
+        <v>0.000498103416499827</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -11942,6 +12966,9 @@
       <c r="F341" t="n">
         <v>0.302124410679853</v>
       </c>
+      <c r="G341" t="n">
+        <v>0.302124410679853</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -11962,6 +12989,9 @@
       <c r="F342" t="n">
         <v>0.644649614764512</v>
       </c>
+      <c r="G342" t="n">
+        <v>0.644649614764512</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -11982,6 +13012,9 @@
       <c r="F343" t="n">
         <v>0.27975734026193</v>
       </c>
+      <c r="G343" t="n">
+        <v>0.27975734026193</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -12002,6 +13035,9 @@
       <c r="F344" t="n">
         <v>0.68842698639606</v>
       </c>
+      <c r="G344" t="n">
+        <v>0.68842698639606</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -12020,6 +13056,9 @@
         <v>3.05246390272</v>
       </c>
       <c r="F345" t="n">
+        <v>12.5915648626032</v>
+      </c>
+      <c r="G345" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12042,6 +13081,9 @@
       <c r="F346" t="n">
         <v>1.02048839370361</v>
       </c>
+      <c r="G346" t="n">
+        <v>1.02048839370361</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -12062,6 +13104,9 @@
       <c r="F347" t="n">
         <v>0.667891617444443</v>
       </c>
+      <c r="G347" t="n">
+        <v>0.667891617444443</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -12082,6 +13127,9 @@
       <c r="F348" t="n">
         <v>0.000118802014373965</v>
       </c>
+      <c r="G348" t="n">
+        <v>0.000118802014373965</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -12102,6 +13150,9 @@
       <c r="F349" t="n">
         <v>0.000073741596301589</v>
       </c>
+      <c r="G349" t="n">
+        <v>0.000073741596301589</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -12122,6 +13173,9 @@
       <c r="F350" t="n">
         <v>1.03304528551944</v>
       </c>
+      <c r="G350" t="n">
+        <v>1.03304528551944</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -12140,6 +13194,9 @@
         <v>7.84669975808</v>
       </c>
       <c r="F351" t="n">
+        <v>15.2348195439486</v>
+      </c>
+      <c r="G351" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12162,6 +13219,9 @@
       <c r="F352" t="n">
         <v>0.00242447511499394</v>
       </c>
+      <c r="G352" t="n">
+        <v>0.00242447511499394</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -12182,6 +13242,9 @@
       <c r="F353" t="n">
         <v>1.02183972895348</v>
       </c>
+      <c r="G353" t="n">
+        <v>1.02183972895348</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -12200,6 +13263,9 @@
         <v>0.66106925226</v>
       </c>
       <c r="F354" t="n">
+        <v>12.4629984369135</v>
+      </c>
+      <c r="G354" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12222,6 +13288,9 @@
       <c r="F355" t="n">
         <v>0.000659649719647103</v>
       </c>
+      <c r="G355" t="n">
+        <v>0.000659649719647103</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -12240,6 +13309,9 @@
         <v>0.05414471014</v>
       </c>
       <c r="F356" t="n">
+        <v>7.48554512165416</v>
+      </c>
+      <c r="G356" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12262,6 +13334,9 @@
       <c r="F357" t="n">
         <v>0.178594563704275</v>
       </c>
+      <c r="G357" t="n">
+        <v>0.178594563704275</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -12282,6 +13357,9 @@
       <c r="F358" t="n">
         <v>0.00134269561002339</v>
       </c>
+      <c r="G358" t="n">
+        <v>0.00134269561002339</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -12300,6 +13378,9 @@
         <v>1.46044445858</v>
       </c>
       <c r="F359" t="n">
+        <v>3.82126088492551</v>
+      </c>
+      <c r="G359" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12322,6 +13403,9 @@
       <c r="F360" t="n">
         <v>0.00107691608760614</v>
       </c>
+      <c r="G360" t="n">
+        <v>0.00107691608760614</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -12342,6 +13426,9 @@
       <c r="F361" t="n">
         <v>0.918400922420342</v>
       </c>
+      <c r="G361" t="n">
+        <v>0.918400922420342</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -12362,6 +13449,9 @@
       <c r="F362" t="n">
         <v>0.0000253494080769662</v>
       </c>
+      <c r="G362" t="n">
+        <v>0.0000253494080769662</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -12382,6 +13472,9 @@
       <c r="F363" t="n">
         <v>1.61532393050412</v>
       </c>
+      <c r="G363" t="n">
+        <v>1.61532393050412</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -12402,6 +13495,9 @@
       <c r="F364" t="n">
         <v>1.60798166467889</v>
       </c>
+      <c r="G364" t="n">
+        <v>1.60798166467889</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -12422,6 +13518,9 @@
       <c r="F365" t="n">
         <v>1.02216754749566</v>
       </c>
+      <c r="G365" t="n">
+        <v>1.02216754749566</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -12440,6 +13539,9 @@
         <v>0.29483672453</v>
       </c>
       <c r="F366" t="n">
+        <v>3.93049780547518</v>
+      </c>
+      <c r="G366" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12462,6 +13564,9 @@
       <c r="F367" t="n">
         <v>0.559924405912299</v>
       </c>
+      <c r="G367" t="n">
+        <v>0.559924405912299</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -12482,6 +13587,9 @@
       <c r="F368" t="n">
         <v>0.0175882819690554</v>
       </c>
+      <c r="G368" t="n">
+        <v>0.0175882819690554</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -12502,6 +13610,9 @@
       <c r="F369" t="n">
         <v>0.420173047413942</v>
       </c>
+      <c r="G369" t="n">
+        <v>0.420173047413942</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -12522,6 +13633,9 @@
       <c r="F370" t="n">
         <v>0.0365855615915449</v>
       </c>
+      <c r="G370" t="n">
+        <v>0.0365855615915449</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -12542,6 +13656,9 @@
       <c r="F371" t="n">
         <v>0.894236423973345</v>
       </c>
+      <c r="G371" t="n">
+        <v>0.894236423973345</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -12562,6 +13679,9 @@
       <c r="F372" t="n">
         <v>0.000485940965497128</v>
       </c>
+      <c r="G372" t="n">
+        <v>0.000485940965497128</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -12582,6 +13702,9 @@
       <c r="F373" t="n">
         <v>0.00246231729153683</v>
       </c>
+      <c r="G373" t="n">
+        <v>0.00246231729153683</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -12602,6 +13725,9 @@
       <c r="F374" t="n">
         <v>0.000223145166348738</v>
       </c>
+      <c r="G374" t="n">
+        <v>0.000223145166348738</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -12622,6 +13748,9 @@
       <c r="F375" t="n">
         <v>1.10192269914049</v>
       </c>
+      <c r="G375" t="n">
+        <v>1.10192269914049</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -12642,6 +13771,9 @@
       <c r="F376" t="n">
         <v>1.31894692298863</v>
       </c>
+      <c r="G376" t="n">
+        <v>1.31894692298863</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -12662,6 +13794,9 @@
       <c r="F377" t="n">
         <v>0.00541431972745553</v>
       </c>
+      <c r="G377" t="n">
+        <v>0.00541431972745553</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -12682,6 +13817,9 @@
       <c r="F378" t="n">
         <v>0.0772692600427366</v>
       </c>
+      <c r="G378" t="n">
+        <v>0.0772692600427366</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -12702,6 +13840,9 @@
       <c r="F379" t="n">
         <v>0.573171582366854</v>
       </c>
+      <c r="G379" t="n">
+        <v>0.573171582366854</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -12722,6 +13863,9 @@
       <c r="F380" t="n">
         <v>0.000246146586179775</v>
       </c>
+      <c r="G380" t="n">
+        <v>0.000246146586179775</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -12742,6 +13886,9 @@
       <c r="F381" t="n">
         <v>0.403602636165404</v>
       </c>
+      <c r="G381" t="n">
+        <v>0.403602636165404</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -12762,6 +13909,9 @@
       <c r="F382" t="n">
         <v>0.549211593542151</v>
       </c>
+      <c r="G382" t="n">
+        <v>0.549211593542151</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -12782,6 +13932,9 @@
       <c r="F383" t="n">
         <v>0.376388459932418</v>
       </c>
+      <c r="G383" t="n">
+        <v>0.376388459932418</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -12802,6 +13955,9 @@
       <c r="F384" t="n">
         <v>0.527423628777405</v>
       </c>
+      <c r="G384" t="n">
+        <v>0.527423628777405</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -12820,6 +13976,9 @@
         <v>1.51223820752</v>
       </c>
       <c r="F385" t="n">
+        <v>3.02346667502931</v>
+      </c>
+      <c r="G385" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12842,6 +14001,9 @@
       <c r="F386" t="n">
         <v>1.05935146531358</v>
       </c>
+      <c r="G386" t="n">
+        <v>1.05935146531358</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -12862,6 +14024,9 @@
       <c r="F387" t="n">
         <v>0.00194222174376629</v>
       </c>
+      <c r="G387" t="n">
+        <v>0.00194222174376629</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -12882,6 +14047,9 @@
       <c r="F388" t="n">
         <v>1.02907267179045</v>
       </c>
+      <c r="G388" t="n">
+        <v>1.02907267179045</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -12902,6 +14070,9 @@
       <c r="F389" t="n">
         <v>0.807790199304691</v>
       </c>
+      <c r="G389" t="n">
+        <v>0.807790199304691</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -12922,6 +14093,9 @@
       <c r="F390" t="n">
         <v>1.17468446743311</v>
       </c>
+      <c r="G390" t="n">
+        <v>1.17468446743311</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -12942,6 +14116,9 @@
       <c r="F391" t="n">
         <v>0.000915424419689587</v>
       </c>
+      <c r="G391" t="n">
+        <v>0.000915424419689587</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -12962,6 +14139,9 @@
       <c r="F392" t="n">
         <v>0.220334897168616</v>
       </c>
+      <c r="G392" t="n">
+        <v>0.220334897168616</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -12980,6 +14160,9 @@
         <v>3.29841921452</v>
       </c>
       <c r="F393" t="n">
+        <v>12.7147122517026</v>
+      </c>
+      <c r="G393" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13002,6 +14185,9 @@
       <c r="F394" t="n">
         <v>0.933146816226651</v>
       </c>
+      <c r="G394" t="n">
+        <v>0.933146816226651</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -13022,6 +14208,9 @@
       <c r="F395" t="n">
         <v>1.05729337284993</v>
       </c>
+      <c r="G395" t="n">
+        <v>1.05729337284993</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -13040,6 +14229,9 @@
         <v>9.45392939153</v>
       </c>
       <c r="F396" t="n">
+        <v>2.08668046784188</v>
+      </c>
+      <c r="G396" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13062,6 +14254,9 @@
       <c r="F397" t="n">
         <v>1.34650483264345</v>
       </c>
+      <c r="G397" t="n">
+        <v>1.34650483264345</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -13082,6 +14277,9 @@
       <c r="F398" t="n">
         <v>0.00491795807804771</v>
       </c>
+      <c r="G398" t="n">
+        <v>0.00491795807804771</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -13102,6 +14300,9 @@
       <c r="F399" t="n">
         <v>0.660586055073264</v>
       </c>
+      <c r="G399" t="n">
+        <v>0.660586055073264</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -13122,6 +14323,9 @@
       <c r="F400" t="n">
         <v>1.55188735151047</v>
       </c>
+      <c r="G400" t="n">
+        <v>1.55188735151047</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -13142,6 +14346,9 @@
       <c r="F401" t="n">
         <v>0.000243242509111973</v>
       </c>
+      <c r="G401" t="n">
+        <v>0.000243242509111973</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -13160,6 +14367,9 @@
         <v>1.13904825251</v>
       </c>
       <c r="F402" t="n">
+        <v>6.60381612475489</v>
+      </c>
+      <c r="G402" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13182,6 +14392,9 @@
       <c r="F403" t="n">
         <v>0.0433675870109816</v>
       </c>
+      <c r="G403" t="n">
+        <v>0.0433675870109816</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -13202,6 +14415,9 @@
       <c r="F404" t="n">
         <v>0.761478937799636</v>
       </c>
+      <c r="G404" t="n">
+        <v>0.761478937799636</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -13222,6 +14438,9 @@
       <c r="F405" t="n">
         <v>0.852583921094211</v>
       </c>
+      <c r="G405" t="n">
+        <v>0.852583921094211</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -13242,6 +14461,9 @@
       <c r="F406" t="n">
         <v>0.00661995615439474</v>
       </c>
+      <c r="G406" t="n">
+        <v>0.00661995615439474</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -13262,6 +14484,9 @@
       <c r="F407" t="n">
         <v>1.51595869361606</v>
       </c>
+      <c r="G407" t="n">
+        <v>1.51595869361606</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -13282,6 +14507,9 @@
       <c r="F408" t="n">
         <v>0.794214070268076</v>
       </c>
+      <c r="G408" t="n">
+        <v>0.794214070268076</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -13300,6 +14528,9 @@
         <v>65.08899612693</v>
       </c>
       <c r="F409" t="n">
+        <v>1.06075569050095</v>
+      </c>
+      <c r="G409" t="n">
         <v>1.06075569050095</v>
       </c>
     </row>
